--- a/experiment result/64_0.7_40_zs40_kappa_lp.xlsx
+++ b/experiment result/64_0.7_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004317619910775955</v>
+        <v>0.01213255733514202</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008364763879852095</v>
+        <v>0.005971687029783795</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01021653459023973</v>
+        <v>0.0149071059175456</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0100694368120862</v>
+        <v>0.01365495202184372</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007921253667533563</v>
+        <v>0.002939969171759698</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01004010214918071</v>
+        <v>0.03000957264096127</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008721537440032264</v>
+        <v>0.001670854999572009</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006110679767231003</v>
+        <v>0.02045583307334085</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007929335185299063</v>
+        <v>0.01303591399253553</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01020106045152824</v>
+        <v>0.1006528528141361</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.006259302240221453</v>
+        <v>0.0214945879671208</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01154393353554437</v>
+        <v>0.06073480370704667</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01113580163531858</v>
+        <v>0.0002743332283783078</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.009557237456942952</v>
+        <v>0.005775037765385739</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00868354757190911</v>
+        <v>0.005750299369963909</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.006585900017993199</v>
+        <v>0.001531762748512479</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.008989617150954286</v>
+        <v>0.006248784502348509</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.006085102602766916</v>
+        <v>0.0001834849585178626</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.007500599396303894</v>
+        <v>0.002798497303261062</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01043245876813996</v>
+        <v>0.004380690669598005</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008552023338914725</v>
+        <v>0.005338160904849458</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00648042184479965</v>
+        <v>0.001252883199464153</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02369931948178259</v>
+        <v>0.07612733615579362</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007387793646377136</v>
+        <v>0.01319230081389146</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.002444430966255746</v>
+        <v>0.002847689758798993</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006639344054012325</v>
+        <v>0.03497529914012244</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007968509719882999</v>
+        <v>0.01162256462879459</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.008268494674833284</v>
+        <v>0.03823983530786249</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.009734500650375814</v>
+        <v>0.01638312509757205</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01167919099857506</v>
+        <v>0.01722904734213068</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.002830725935940011</v>
+        <v>6.378528176327153e-05</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01029980769663547</v>
+        <v>0.001415815359910051</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01219256599222402</v>
+        <v>0.008252711006833256</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.003878689066995065</v>
+        <v>0.0003606474189190874</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.005561258930543196</v>
+        <v>0.01313143474740382</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.009397779912541201</v>
+        <v>0.0004756303340425925</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.006594086898510531</v>
+        <v>0.0007782596477861316</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.008559953966304015</v>
+        <v>0.01027551457756858</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.009812652516406803</v>
+        <v>0.001474756774702132</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01318767205125814</v>
+        <v>0.03894967371684462</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.009585213321938305</v>
+        <v>0.03420007456544034</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.004665646049220257</v>
+        <v>0.01736434447464418</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.004482465834855009</v>
+        <v>0.000792600344834187</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.006616010292685002</v>
+        <v>0.002955739813241198</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01291125254320878</v>
+        <v>0.002456852842866094</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.008609123386482929</v>
+        <v>0.004571637054822951</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01076524872087751</v>
+        <v>0.03571819068712757</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.004433227109769408</v>
+        <v>0.004165397910974259</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.009477760167190628</v>
+        <v>0.002889300142205858</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.007895549864707424</v>
+        <v>0.0003442260683887561</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.007767023363330005</v>
+        <v>0.005926499328359185</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.008498370850433793</v>
+        <v>0.005360010487692645</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.002386062642765739</v>
+        <v>1.724992125782949e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003030661424024909</v>
+        <v>0.0001025583363835676</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006255832335394007</v>
+        <v>0.01061600669672118</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.007622536180780346</v>
+        <v>0.003943417153682834</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.003893496712089595</v>
+        <v>0.0001830005074586443</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0056810568216987</v>
+        <v>0.00271813844321185</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02100071749145986</v>
+        <v>0.01326367402739761</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.005005031073996217</v>
+        <v>0.0003460184962098792</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.001250493078957474</v>
+        <v>0.0002880531299673162</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.003878657519205186</v>
+        <v>0.00765644706500722</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01068902666240185</v>
+        <v>0.05287240484047791</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.004944213892130121</v>
+        <v>0.0006915018279596093</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.007494081405138872</v>
+        <v>0.003662773127695972</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.009823437961072037</v>
+        <v>0.01056798678471408</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.00928060289432589</v>
+        <v>0.00242246153718192</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.003917051153893051</v>
+        <v>0.001859158163342686</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002590651227357871</v>
+        <v>0.0003835319274764514</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.00393798491474004</v>
+        <v>0.003516270789284453</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.005817803953776682</v>
+        <v>0.009859252043625307</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.008194373880762055</v>
+        <v>0.002149626757434074</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.008585706688067404</v>
+        <v>0.003166561200448337</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003928722839270273</v>
+        <v>0.01448658908589651</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.008879480069662991</v>
+        <v>0.008132810886238745</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.005917173783105523</v>
+        <v>0.03729356010168619</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.006130656692268967</v>
+        <v>0.0002062339204345592</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.006934940448276042</v>
+        <v>0.0376593847072619</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.00915466743510319</v>
+        <v>0.01128330019470953</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01031457122046218</v>
+        <v>0.0307625651456166</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.006338174103571766</v>
+        <v>0.005240930000553408</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01483636318452953</v>
+        <v>0.002937382027870686</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.007766993745283837</v>
+        <v>0.02298027760726139</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01268654082756719</v>
+        <v>0.004953657426247592</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.009748941969342152</v>
+        <v>0.08051052169796873</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.007761234069269386</v>
+        <v>0.01084922610125676</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.004817805171420998</v>
+        <v>0.005846224160592566</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.008340482387386244</v>
+        <v>0.005490559971563362</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.006096309255660722</v>
+        <v>0.008977512272482354</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.006562195614660637</v>
+        <v>0.0001720017269005444</v>
       </c>
     </row>
   </sheetData>
